--- a/mapper/test_data.xlsx
+++ b/mapper/test_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="61">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>아침: 걱정, 오후: 안도, 저녁: 걱정</t>
+  </si>
+  <si>
+    <t>00기</t>
+  </si>
+  <si>
+    <t>파이썬, 자바스크립트, 장고, 리액트, 노드 js</t>
   </si>
 </sst>
 </file>
@@ -1341,6 +1347,55 @@
         <v>29</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>44139.70648508102</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>44140.84618784722</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
